--- a/branches/transfer-out-date/StructureDefinition-transferred-out.xlsx
+++ b/branches/transfer-out-date/StructureDefinition-transferred-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T15:41:19+00:00</t>
+    <t>2023-03-02T15:42:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/transfer-out-date/StructureDefinition-transferred-out.xlsx
+++ b/branches/transfer-out-date/StructureDefinition-transferred-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T15:42:08+00:00</t>
+    <t>2023-03-03T07:02:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/transfer-out-date/StructureDefinition-transferred-out.xlsx
+++ b/branches/transfer-out-date/StructureDefinition-transferred-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T07:02:32+00:00</t>
+    <t>2023-03-03T07:18:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/transfer-out-date/StructureDefinition-transferred-out.xlsx
+++ b/branches/transfer-out-date/StructureDefinition-transferred-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T07:18:03+00:00</t>
+    <t>2023-03-03T07:18:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/transfer-out-date/StructureDefinition-transferred-out.xlsx
+++ b/branches/transfer-out-date/StructureDefinition-transferred-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T07:18:54+00:00</t>
+    <t>2023-03-03T08:26:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/transfer-out-date/StructureDefinition-transferred-out.xlsx
+++ b/branches/transfer-out-date/StructureDefinition-transferred-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T08:26:44+00:00</t>
+    <t>2023-03-03T08:27:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/transfer-out-date/StructureDefinition-transferred-out.xlsx
+++ b/branches/transfer-out-date/StructureDefinition-transferred-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T08:27:27+00:00</t>
+    <t>2023-03-03T09:39:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/transfer-out-date/StructureDefinition-transferred-out.xlsx
+++ b/branches/transfer-out-date/StructureDefinition-transferred-out.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T09:39:05+00:00</t>
+    <t>2023-03-03T10:18:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
